--- a/SARS-CoV-2/CHEMBL2363965_targets_seq.xlsx
+++ b/SARS-CoV-2/CHEMBL2363965_targets_seq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy-satellite\Documents\RBIF120\paralog_targets\SARS-CoV-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{947AE1D6-3730-4924-BAB6-7A11242DF17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42F2E3A-8549-4F0F-B4C6-6DC3F0E84285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="0" windowWidth="19860" windowHeight="12210"/>
+    <workbookView xWindow="-28920" yWindow="-6990" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMBL2363965_targets_drugs" sheetId="1" r:id="rId1"/>
@@ -208,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +343,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -686,11 +692,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1045,492 +1052,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="171.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>8497</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>8498</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>8499</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>8500</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>8501</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>8502</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>8503</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8504</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8505</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>8506</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>8507</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>8508</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>8509</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>8510</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>8511</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:2" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>8512</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>8513</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:2" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>8514</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:2" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>8515</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>8516</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>8517</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>8518</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>8519</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>8520</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>8521</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>8522</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>8523</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>8524</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:2" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>8525</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>8526</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>8527</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>8528</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:2" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>8529</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>8531</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>8532</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>8533</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:2" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>8534</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:2" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>8535</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>8536</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>8537</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>8538</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>8539</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>8540</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>8541</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>8542</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>8543</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>8544</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>8545</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>8546</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>8547</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>8548</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>8549</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:2" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>8550</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>8551</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>8552</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>8553</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>8554</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>8555</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>8556</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1539,5 +1547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>